--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -538,21 +538,6 @@
   </si>
   <si>
     <t>익일 회의 진행예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 피그마 프로토타이핑
-- Mecury , Venus , Earth , Mars , Jupiter , Saturn , Uranus , Neptune 완료 =&gt; 서브페이지 메인 컨텐츠 완료
-- 익일 갤러리 서브메뉴 추가작업 진행 
-- 추후 공통영역 레이아웃 나오면 공통영역, (BGM) 등 추가하여 마무리 
-- 메인페이지 발사믹 공유 받으면 메인페이지 진행
-2. 발사믹 와이어프레임
-- 네이밍및 넘버링 , 추가 보완
-3. 회의안건 정리
-4. 자료수집
-- BGM , 컨텐츠 텍스트 , 이미지 수집
-5. 소스 네이밍 및 점검
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,13 +629,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 자료수집
+    <t xml:space="preserve">1. 피그마 프로토타이핑
+- Mecury , Venus , Earth , Mars , Jupiter , Saturn , Uranus , Neptune   =&gt; 서브페이지 메인 컨텐츠 완료
+- 익일 갤러리 서브메뉴 추가작업 진행 
+- 추후 공통영역 레이아웃 나오면 공통영역, (BGM) 등 추가하여 마무리 
+- 메인페이지 발사믹 공유 받으면 메인페이지 진행
+2. 발사믹 와이어프레임
+- 네이밍및 넘버링 , 추가 보완
+3. 회의안건 정리
+4. 자료수집
+- BGM , 컨텐츠 텍스트 , 이미지 수집
+5. 소스 네이밍 및 점검
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 자료수집
 - 회전 비디오
 2. 담당 분석설계 자료 및 소스 깃허브 업데이트
-3. 발사믹 , 피그마
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>발사믹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> , 피그마
 - 갤러리 이미지 확대 서브메뉴 업데이트
 (4.  3.까지 마무리 되면 Mercury 코딩 시작)
 </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,6 +1431,54 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,52 +1515,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,15 +1531,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2586,12 +2611,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2607,7 +2632,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2618,60 +2643,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="67">
         <v>45670</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2746,14 +2771,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2839,7 +2864,7 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="66" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="22">
@@ -2880,7 +2905,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H36" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2921,7 +2946,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2958,7 +2983,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2997,7 +3022,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3034,7 +3059,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3073,7 +3098,7 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="63" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="22">
@@ -3116,7 +3141,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3157,7 +3182,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H26" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3196,7 +3221,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3235,7 +3260,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3274,7 +3299,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3313,7 +3338,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3352,7 +3377,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3393,7 +3418,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3434,7 +3459,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3475,7 +3500,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3516,7 +3541,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3557,7 +3582,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3598,7 +3623,7 @@
       <c r="F26" s="11">
         <v>45678</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3637,7 +3662,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3678,7 +3703,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3719,7 +3744,7 @@
       <c r="F29" s="11">
         <v>45680</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3760,7 +3785,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3801,7 +3826,7 @@
       <c r="F31" s="11">
         <v>45684</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3842,7 +3867,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4029,18 +4054,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G13:G32"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G13:G32"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA36">
@@ -4402,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4421,16 +4446,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4440,7 +4465,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4453,126 +4478,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="75" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4656,7 +4681,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="24"/>
@@ -4730,123 +4755,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="75" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="79"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -4950,123 +4975,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="75" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="79"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5147,7 +5172,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>93</v>
@@ -5203,123 +5228,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="75" t="s">
+      <c r="B25" s="75"/>
+      <c r="C25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="79"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="80"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5428,6 +5453,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5444,83 +5546,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,11 +395,6 @@
   </si>
   <si>
     <t>1. 우주복입은 사람이 커서를 따라다니는 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Grid를 이용한 갤러리
-2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,7 +532,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>익일 회의 진행예정</t>
+    <t xml:space="preserve">1. 피그마 프로토타이핑
+- Mecury , Venus , Earth , Mars , Jupiter , Saturn , Uranus , Neptune   =&gt; 서브페이지 메인 컨텐츠 완료
+- 익일 갤러리 서브메뉴 추가작업 진행 
+- 추후 공통영역 레이아웃 나오면 공통영역, (BGM) 등 추가하여 마무리 
+- 메인페이지 발사믹 공유 받으면 메인페이지 진행
+2. 발사믹 와이어프레임
+- 네이밍및 넘버링 , 추가 보완
+3. 회의안건 정리
+4. 자료수집
+- BGM , 컨텐츠 텍스트 , 이미지 수집
+5. 소스 네이밍 및 점검
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,7 +570,6 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-2. 자료수집
 </t>
     </r>
     <r>
@@ -577,7 +582,32 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>- 피그마에도 써야하므로 우선적 진행</t>
+      <t xml:space="preserve">
+2. 자료수집
+- 피그마에도 써야하므로 우선적 진행
+- 필요한 행성 정보 , 회전 비디오? , 3D 모델 수집 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">익일 회의 진행예정
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">1. 자료수집
+- 회전 비디오
+</t>
     </r>
     <r>
       <rPr>
@@ -589,6 +619,7 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
+2. 담당 분석설계 자료 및 소스 깃허브 업데이트
 </t>
     </r>
     <r>
@@ -601,7 +632,8 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>- 필요한 행성 정보 ,</t>
+      <t>3. 발사믹 , 피그마
+- 갤러리 이미지 확대 서브메뉴 업데이트</t>
     </r>
     <r>
       <rPr>
@@ -612,70 +644,39 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> 회전 비디오? ,</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> 3D 모델 수집 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 피그마 프로토타이핑
-- Mecury , Venus , Earth , Mars , Jupiter , Saturn , Uranus , Neptune   =&gt; 서브페이지 메인 컨텐츠 완료
-- 익일 갤러리 서브메뉴 추가작업 진행 
-- 추후 공통영역 레이아웃 나오면 공통영역, (BGM) 등 추가하여 마무리 
-- 메인페이지 발사믹 공유 받으면 메인페이지 진행
-2. 발사믹 와이어프레임
-- 네이밍및 넘버링 , 추가 보완
-3. 회의안건 정리
-4. 자료수집
-- BGM , 컨텐츠 텍스트 , 이미지 수집
-5. 소스 네이밍 및 점검
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 자료수집
-- 회전 비디오
-2. 담당 분석설계 자료 및 소스 깃허브 업데이트
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>발사믹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> , 피그마
-- 갤러리 이미지 확대 서브메뉴 업데이트
+      <t xml:space="preserve">
 (4.  3.까지 마무리 되면 Mercury 코딩 시작)
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회전 gif 파일 속성을 만질 수 있는지 확인필요
+-&gt; 해상도가 괜찮은 파일만 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grid를 이용한 갤러리
+2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
+2. Close(x) 버튼 클릭시 화면 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 자료수집
+- 커서 샘플이미지 , 행성 회전이미지 수집
+2. 피그마
+- 갤러리 서브메뉴
+3. 발사믹
+- 갤러리 서브메뉴 및 네이밍, 넘버링
+4. 회의진행 및 회의록 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +690,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +879,14 @@
       <strike/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1289,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,6 +1440,51 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1461,15 +1515,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,40 +1524,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,14 +1542,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,6 +1568,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFE4E4E4"/>
     </mruColors>
   </colors>
@@ -1686,13 +1699,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1942,70 +1955,6 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
@@ -2017,10 +1966,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
+                  <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2081,10 +2030,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
+                  <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2145,6 +2094,70 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -2198,13 +2211,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2262,13 +2275,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2586,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA36"/>
+  <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2611,12 +2624,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2643,60 +2656,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="69" t="s">
+      <c r="G4" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="51">
         <v>45670</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2771,14 +2784,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="74"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2864,8 +2877,8 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="66" t="s">
-        <v>83</v>
+      <c r="G7" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="H7" s="22">
         <f>IF(F7="","",F7+1-E7)</f>
@@ -2905,9 +2918,9 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H36" si="3">IF(F8="","",F8+1-E8)</f>
+        <f t="shared" ref="H8:H37" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
       </c>
       <c r="I8" s="18">
@@ -2946,7 +2959,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2983,7 +2996,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3022,7 +3035,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3059,7 +3072,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3098,8 +3111,8 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="63" t="s">
-        <v>84</v>
+      <c r="G13" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="3"/>
@@ -3132,7 +3145,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="11">
@@ -3141,7 +3154,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3173,7 +3186,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="11">
@@ -3182,9 +3195,9 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="64"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="22">
-        <f t="shared" ref="H15:H26" si="4">IF(F15="","",F15+1-E15)</f>
+        <f t="shared" ref="H15:H27" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
       </c>
       <c r="I15" s="18">
@@ -3221,7 +3234,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="64"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3250,7 +3263,7 @@
     </row>
     <row r="17" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="18"/>
@@ -3260,7 +3273,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3289,7 +3302,7 @@
     </row>
     <row r="18" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="18"/>
@@ -3299,7 +3312,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="64"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3328,7 +3341,7 @@
     </row>
     <row r="19" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="18"/>
@@ -3338,7 +3351,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="64"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3377,7 +3390,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3409,7 +3422,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="11">
@@ -3418,7 +3431,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="64"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3446,27 +3459,18 @@
       <c r="AA21" s="36"/>
     </row>
     <row r="22" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>63</v>
+      <c r="B22" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="22">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3486,12 +3490,12 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="36"/>
     </row>
-    <row r="23" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="11">
@@ -3500,7 +3504,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="64"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3527,12 +3531,12 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="36"/>
     </row>
-    <row r="24" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="11">
@@ -3541,7 +3545,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3568,12 +3572,12 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="36"/>
     </row>
-    <row r="25" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="11">
@@ -3582,7 +3586,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="64"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3609,26 +3613,28 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="36"/>
     </row>
-    <row r="26" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>78</v>
+    <row r="26" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="11">
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="F26" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G26" s="64"/>
+        <v>45674</v>
+      </c>
+      <c r="G26" s="48"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I26" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="27" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>67</v>
@@ -3662,14 +3668,12 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="64"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="28" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>67</v>
@@ -3703,7 +3707,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="64"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3732,19 +3736,19 @@
     </row>
     <row r="29" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="11">
-        <v>45679</v>
+        <v>45677</v>
       </c>
       <c r="F29" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G29" s="64"/>
+        <v>45678</v>
+      </c>
+      <c r="G29" s="48"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3773,7 +3777,7 @@
     </row>
     <row r="30" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>67</v>
@@ -3785,7 +3789,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3814,22 +3818,22 @@
     </row>
     <row r="31" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="11">
-        <v>45681</v>
+        <v>45679</v>
       </c>
       <c r="F31" s="11">
-        <v>45684</v>
-      </c>
-      <c r="G31" s="64"/>
+        <v>45680</v>
+      </c>
+      <c r="G31" s="48"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" s="18">
         <v>0</v>
@@ -3853,24 +3857,24 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="36"/>
     </row>
-    <row r="32" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="11">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="F32" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G32" s="65"/>
+        <v>45684</v>
+      </c>
+      <c r="G32" s="48"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="18">
         <v>0</v>
@@ -3894,24 +3898,24 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="36"/>
     </row>
-    <row r="33" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="30"/>
       <c r="E33" s="11">
-        <v>45688</v>
+        <v>45679</v>
       </c>
       <c r="F33" s="11">
-        <v>45694</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>85</v>
-      </c>
+        <v>45680</v>
+      </c>
+      <c r="G33" s="49"/>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I33" s="18">
         <v>0</v>
@@ -3935,22 +3939,24 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="36"/>
     </row>
-    <row r="34" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>16</v>
+    <row r="34" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="18"/>
       <c r="E34" s="11">
-        <v>45670</v>
+        <v>45688</v>
       </c>
       <c r="F34" s="11">
-        <v>45698</v>
-      </c>
-      <c r="G34" s="46"/>
+        <v>45694</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>84</v>
+      </c>
       <c r="H34" s="22">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I34" s="18">
         <v>0</v>
@@ -3974,9 +3980,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="36"/>
     </row>
-    <row r="35" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>17</v>
+    <row r="35" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="18"/>
@@ -4013,9 +4019,9 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="36"/>
     </row>
-    <row r="36" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>18</v>
+    <row r="36" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="18"/>
@@ -4052,33 +4058,72 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="36"/>
     </row>
+    <row r="37" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="11">
+        <v>45670</v>
+      </c>
+      <c r="F37" s="11">
+        <v>45698</v>
+      </c>
+      <c r="G37" s="46"/>
+      <c r="H37" s="22">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G13:G32"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G13:G33"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:AA36">
+  <conditionalFormatting sqref="J5:AA37">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>J$5=$F$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:AA36">
+  <conditionalFormatting sqref="J7:AA37">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(J$5&gt;=$E7,J$5&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36 D7:D25">
+  <conditionalFormatting sqref="D28:D37 D7:D26">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
@@ -4092,7 +4137,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4106,7 +4151,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I36">
+  <conditionalFormatting sqref="I7:I37">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -4138,13 +4183,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4248,28 +4293,6 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId10" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
@@ -4286,7 +4309,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId11" name="Check Box 16">
+            <control shapeId="1039" r:id="rId10" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4308,19 +4331,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId11" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1041" r:id="rId12" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4336,13 +4381,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4358,14 +4403,14 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4389,7 +4434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27:D36 D7:D25</xm:sqref>
+          <xm:sqref>D28:D37 D7:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}">
@@ -4402,7 +4447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E6E96A8-9112-4728-A340-025BFCD2777D}">
@@ -4415,7 +4460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I7:I36</xm:sqref>
+          <xm:sqref>I7:I37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4428,7 +4473,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4446,16 +4491,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4478,136 +4523,136 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75"/>
-      <c r="C4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="78" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="76"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="77"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>25</v>
@@ -4675,15 +4720,17 @@
         <v>45</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -4755,133 +4802,133 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="78" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="76"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="77"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="77"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>25</v>
@@ -4975,133 +5022,133 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
-      <c r="C18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="78" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="76"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="77"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="77"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>25</v>
@@ -5169,13 +5216,13 @@
         <v>48</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
@@ -5228,133 +5275,133 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="75"/>
-      <c r="C25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="78" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="76"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="77"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="77"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>25</v>
@@ -5422,13 +5469,15 @@
         <v>50</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>93</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -5453,83 +5502,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5546,6 +5518,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">회전 gif 파일 속성을 만질 수 있는지 확인필요
+-&gt; 해상도가 괜찮은 파일만 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grid를 이용한 갤러리
+2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
+2. Close(x) 버튼 클릭시 화면 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -619,7 +638,30 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-2. 담당 분석설계 자료 및 소스 깃허브 업데이트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 담당 분석설계 자료 및 소스 깃허브 업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -651,32 +693,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">회전 gif 파일 속성을 만질 수 있는지 확인필요
--&gt; 해상도가 괜찮은 파일만 사용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Grid를 이용한 갤러리
-2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 서브메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
-2. Close(x) 버튼 클릭시 화면 닫기</t>
+    <t xml:space="preserve">        </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 자료수집
-- 커서 샘플이미지 , 행성 회전이미지 수집
+- 커서 샘플이미지 , 행성 회전이미지, 폰트 수집
 2. 피그마
 - 갤러리 서브메뉴
 3. 발사믹
 - 갤러리 서브메뉴 및 네이밍, 넘버링
-4. 회의진행 및 회의록 작성</t>
+4. 회의진행 및 회의록 작성
+5. 코딩 시작 전 소스 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1440,6 +1468,57 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,52 +1555,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,18 +1572,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2281,8 +2309,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2601,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2624,12 +2652,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2656,60 +2684,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="68">
         <v>45670</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2784,14 +2812,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2877,7 +2905,7 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="67" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -2918,7 +2946,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H37" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2959,7 +2987,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2996,7 +3024,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3035,7 +3063,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3072,7 +3100,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3111,7 +3139,7 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="64" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="22">
@@ -3154,7 +3182,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3195,7 +3223,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H27" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3234,7 +3262,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3273,7 +3301,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3312,7 +3340,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3351,7 +3379,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3390,7 +3418,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3422,7 +3450,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="11">
@@ -3431,7 +3459,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3460,15 +3488,15 @@
     </row>
     <row r="22" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="22"/>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -3504,7 +3532,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3545,7 +3573,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3586,7 +3614,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3627,7 +3655,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3668,7 +3696,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3707,7 +3735,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3748,7 +3776,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3789,7 +3817,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3830,7 +3858,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3871,7 +3899,7 @@
       <c r="F32" s="11">
         <v>45684</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3912,7 +3940,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4099,18 +4127,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G13:G33"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G13:G33"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA37">
@@ -4472,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4491,16 +4519,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4523,126 +4551,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4729,7 +4757,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -4802,123 +4830,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="75" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5022,123 +5050,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="75" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5222,7 +5250,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
@@ -5251,7 +5279,9 @@
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="F23" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -5275,123 +5305,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="75" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5475,8 +5505,8 @@
       <c r="E29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="81" t="s">
-        <v>93</v>
+      <c r="F29" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -5502,6 +5532,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5518,83 +5625,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="100">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,10 +697,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 자료수집
 - 커서 샘플이미지 , 행성 회전이미지, 폰트 수집
 2. 피그마
-- 갤러리 서브메뉴
+- 갤러리 서브메뉴 작업
 3. 발사믹
 - 갤러리 서브메뉴 및 네이밍, 넘버링
 4. 회의진행 및 회의록 작성
@@ -1471,6 +1475,51 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1501,15 +1550,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,40 +1559,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,15 +1575,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,12 +2656,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2684,60 +2688,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="52">
         <v>45670</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2812,14 +2816,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2905,7 +2909,7 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="51" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -2946,7 +2950,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H37" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2987,7 +2991,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3024,7 +3028,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3063,7 +3067,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3100,7 +3104,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3139,7 +3143,7 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="22">
@@ -3182,7 +3186,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3223,7 +3227,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H27" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3262,7 +3266,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3301,7 +3305,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3340,7 +3344,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3379,7 +3383,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3418,7 +3422,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3459,7 +3463,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3496,7 +3500,7 @@
       <c r="D22" s="30"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="65"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="22"/>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -3532,7 +3536,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3573,7 +3577,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3614,7 +3618,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3655,7 +3659,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3696,7 +3700,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3735,7 +3739,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3776,7 +3780,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3817,7 +3821,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3858,7 +3862,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3899,7 +3903,7 @@
       <c r="F32" s="11">
         <v>45684</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3940,7 +3944,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="66"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4127,18 +4131,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G13:G33"/>
     <mergeCell ref="G7:G12"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA37">
@@ -4500,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4519,16 +4523,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4551,126 +4555,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="77"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4757,7 +4761,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -4785,7 +4789,9 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -4830,123 +4836,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="78"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5050,123 +5056,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="77"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5305,123 +5311,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="77"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5532,83 +5538,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5625,6 +5554,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -1475,6 +1475,54 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,52 +1559,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,15 +1575,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2656,12 +2656,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2688,60 +2688,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="68">
         <v>45670</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2816,14 +2816,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="59"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2909,7 +2909,7 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="67" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -2950,7 +2950,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H37" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2991,7 +2991,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3028,7 +3028,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3067,7 +3067,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3104,7 +3104,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3143,7 +3143,7 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="64" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="22">
@@ -3186,7 +3186,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3227,7 +3227,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H27" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3266,7 +3266,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3305,7 +3305,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3344,7 +3344,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3383,7 +3383,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3422,7 +3422,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3463,7 +3463,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3500,7 +3500,7 @@
       <c r="D22" s="30"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="49"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="22"/>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -3536,7 +3536,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3577,7 +3577,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3618,7 +3618,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3659,7 +3659,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3700,7 +3700,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3739,7 +3739,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3780,7 +3780,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3821,7 +3821,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3862,7 +3862,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3903,7 +3903,7 @@
       <c r="F32" s="11">
         <v>45684</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3944,7 +3944,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4131,18 +4131,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G13:G33"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G13:G33"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA37">
@@ -4504,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4523,16 +4523,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4555,126 +4555,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="76" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4836,123 +4836,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="76" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5056,123 +5056,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="76" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5311,123 +5311,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5538,6 +5538,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5554,83 +5631,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250110.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,25 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">회전 gif 파일 속성을 만질 수 있는지 확인필요
--&gt; 해상도가 괜찮은 파일만 사용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Grid를 이용한 갤러리
-2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 서브메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
-2. Close(x) 버튼 클릭시 화면 닫기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -638,30 +619,7 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2. 담당 분석설계 자료 및 소스 깃허브 업데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
+2. 담당 분석설계 자료 및 소스 깃허브 업데이트
 </t>
     </r>
     <r>
@@ -693,22 +651,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">회전 gif 파일 속성을 만질 수 있는지 확인필요
+-&gt; 해상도가 괜찮은 파일만 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grid를 이용한 갤러리
+2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
+2. Close(x) 버튼 클릭시 화면 닫기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 자료수집
-- 커서 샘플이미지 , 행성 회전이미지, 폰트 수집
+- 커서 샘플이미지 , 행성 회전이미지 수집
 2. 피그마
-- 갤러리 서브메뉴 작업
+- 갤러리 서브메뉴
 3. 발사믹
 - 갤러리 서브메뉴 및 네이밍, 넘버링
-4. 회의진행 및 회의록 작성
-5. 코딩 시작 전 소스 업데이트</t>
+4. 회의진행 및 회의록 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,110 +1440,110 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2313,8 +2281,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2633,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2656,12 +2624,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2677,7 +2645,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2688,60 +2656,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="51">
         <v>45670</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2816,14 +2784,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2909,7 +2877,7 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="50" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -2950,7 +2918,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H37" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2991,7 +2959,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3028,7 +2996,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3067,7 +3035,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3104,7 +3072,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3143,7 +3111,7 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="47" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="22">
@@ -3186,7 +3154,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3227,7 +3195,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H27" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3266,7 +3234,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3305,7 +3273,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3344,7 +3312,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3383,7 +3351,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3422,7 +3390,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3454,7 +3422,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="11">
@@ -3463,7 +3431,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3492,15 +3460,15 @@
     </row>
     <row r="22" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="65"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="22"/>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -3536,7 +3504,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3577,7 +3545,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3618,7 +3586,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3659,7 +3627,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3700,7 +3668,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3739,7 +3707,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3780,7 +3748,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3821,7 +3789,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3862,7 +3830,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3903,7 +3871,7 @@
       <c r="F32" s="11">
         <v>45684</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3944,7 +3912,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="66"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4131,18 +4099,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G13:G33"/>
     <mergeCell ref="G7:G12"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA37">
@@ -4504,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4523,16 +4491,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4542,7 +4510,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4555,126 +4523,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="76"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="77"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4761,7 +4729,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -4789,9 +4757,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
-        <v>98</v>
-      </c>
+      <c r="F9" s="27"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -4836,123 +4802,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="76"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="77"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5056,123 +5022,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="76"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="77"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5256,7 +5222,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
@@ -5285,9 +5251,7 @@
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="44" t="s">
-        <v>97</v>
-      </c>
+      <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -5311,123 +5275,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="76"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="77"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5511,8 +5475,8 @@
       <c r="E29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>92</v>
+      <c r="F29" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -5538,83 +5502,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5631,6 +5518,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
